--- a/Xample TestExcelWrote/scraped-data.xlsx
+++ b/Xample TestExcelWrote/scraped-data.xlsx
@@ -2,9 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\UiPath\Xample TestExcelWrote\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t xml:space="preserve">2 _x000D_
 _x000D_
@@ -54,6 +59,12 @@
     <t xml:space="preserve">80.00 _x000D_
 _x000D_
 </t>
+  </si>
+  <si>
+    <t>3s</t>
+  </si>
+  <si>
+    <t>4s</t>
   </si>
   <si>
     <t xml:space="preserve">6 _x000D_
@@ -444,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,88 +489,130 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
